--- a/Work/Modern Ways/Open Subtitles/Courses/Lesson Deployment3/Product/Turkish_Word_Group_Max_In_Youtube_Sentence_1000_Word6_Result_Additional.xlsx
+++ b/Work/Modern Ways/Open Subtitles/Courses/Lesson Deployment3/Product/Turkish_Word_Group_Max_In_Youtube_Sentence_1000_Word6_Result_Additional.xlsx
@@ -2728,1006 +2728,1006 @@
     <t>3VG7ezQHgmw</t>
   </si>
   <si>
-    <t>{'beş', 'üç', 'sekiz', 'dört', 'yedi', 'altı', 'iki', 'tek'}</t>
-  </si>
-  <si>
-    <t>{'üç', 'beş', 'sekiz', 'dört', 'yedi', 'harika', 'altı', 'iki'}</t>
-  </si>
-  <si>
-    <t>{'beş', 'üç', 'sekiz', 'dört', 'şöyle', 'yedi', 'altı', 'iki'}</t>
-  </si>
-  <si>
-    <t>{'üç', 'beş', 'sekiz', 'saat', 'dört', 'yedi', 'altı', 'iki'}</t>
-  </si>
-  <si>
-    <t>{'beş', 'üç', 'yapacağız', 'dört', 'şöyle', 'altı', 'iki'}</t>
-  </si>
-  <si>
-    <t>{'dışında', 'ölü', 'ölüm', 'doğum', 'günü', 'evde', 'nedir'}</t>
-  </si>
-  <si>
-    <t>{'izin', 'verir', 'hem', 'olsa', 'sence', 'buna', 'miyim'}</t>
-  </si>
-  <si>
-    <t>{'beş', 'bekle', 'yaşında', 'iki', 'sene', 'erken', 'ondan'}</t>
-  </si>
-  <si>
-    <t>{'bin', 'sekiz', 'milyon', 'dört', 'altı', 'teklif', 'yüz'}</t>
-  </si>
-  <si>
-    <t>{'benden', 'beş', 'kere', 'falan', 'söyledim', 'küçük', 'yüz'}</t>
-  </si>
-  <si>
-    <t>{'beş', 'üç', 'düşünüyor', 'dört', 'yedi', 'altı', 'iki'}</t>
-  </si>
-  <si>
-    <t>{'ikinci', 'üç', 'beş', 'dört', 'yedi', 'altı', 'iki'}</t>
-  </si>
-  <si>
-    <t>{'benden', 'sekiz', 'milyon', 'teslim', 'dolar', 'yüz'}</t>
-  </si>
-  <si>
-    <t>{'ona', 'gidip', 'söyledi', 'yapacağız', 'işini', 'ev'}</t>
-  </si>
-  <si>
-    <t>{'bile', 'kendisi', 'olsa', 'istemiyor', 'vermek', 'zarar'}</t>
-  </si>
-  <si>
-    <t>{'beş', 'üç', 'dört', 'yedi', 'altı', 'sefer'}</t>
-  </si>
-  <si>
-    <t>{'asıl', 'boş', 'ver', 'nasılsın', 'aman', 'hep'}</t>
-  </si>
-  <si>
-    <t>{'parayı', 'sakın', 'düşünüyor', 'adamın', 'çocukları', 'hasta'}</t>
-  </si>
-  <si>
-    <t>{'geceler', 'bizi', 'at', 'mü', 'bitti', 'sabah'}</t>
-  </si>
-  <si>
-    <t>{'getir', 'kızın', 'evine', 'git', 'yeri', 'burası'}</t>
-  </si>
-  <si>
-    <t>{'bilgi', 'gidip', 'yerine', 'oradan', 'iki', 'almak'}</t>
-  </si>
-  <si>
-    <t>{'beş', 'üç', 'dört', 'yedi', 'tekrar', 'altı'}</t>
-  </si>
-  <si>
-    <t>{'canım', 'haber', 'sakin', 'gelecek', 'ol', 'etme'}</t>
-  </si>
-  <si>
-    <t>{'ediyorsun', 'kabul', 'bazı', 'erken', 'sende', 'yaptığını'}</t>
-  </si>
-  <si>
-    <t>{'geldik', 'çek', 'çıkar', 'git', 'bakın', 'geç'}</t>
-  </si>
-  <si>
-    <t>{'mesela', 'dünya', 'siyah', 'kara', 'yoktur', 'beyaz'}</t>
-  </si>
-  <si>
-    <t>{'beş', 'tüm', 'veya', 'sonraki', 'altı', 'boyunca'}</t>
-  </si>
-  <si>
-    <t>{'sıra', 'üç', 'beş', 'dört', 'altı', 'iki'}</t>
-  </si>
-  <si>
-    <t>{'bile', 'üç', 'saat', 'dört', 'olmadan', 'kez'}</t>
-  </si>
-  <si>
-    <t>{'nefes', 'saat', 'ciddi', 'olsa', 'suç', 'iki'}</t>
-  </si>
-  <si>
-    <t>{'ile', 'anlat', 'durumu', 'git', 'doktor', 'konuş'}</t>
-  </si>
-  <si>
-    <t>{'beş', 'üç', 'dört', 'yedi', 'altı', 'gördüm'}</t>
-  </si>
-  <si>
-    <t>{'olmasın', 'yalnız', 'anne', 'babası', 'onların', 'hep'}</t>
-  </si>
-  <si>
-    <t>{'üç', 'yapacağız', 'defa', 'iki', 'sene', 'hangi'}</t>
-  </si>
-  <si>
-    <t>{'gizli', 'üç', 'beş', 'dört', 'tekrar', 'iki'}</t>
-  </si>
-  <si>
-    <t>{'rahat', 'ile', 'gece', 'altı', 'defa', 'yıl'}</t>
-  </si>
-  <si>
-    <t>{'üzerinde', 'burayı', 'dünya', 'dört', 'defa', 'geçen'}</t>
-  </si>
-  <si>
-    <t>{'babam', 'verici', 'verir', 'karar'}</t>
-  </si>
-  <si>
-    <t>{'boş', 'onlar', 'al', 'ver', 'emin', 'geç'}</t>
-  </si>
-  <si>
-    <t>{'üç', 'beş', 'üzerine', 'dört', 'tekrar', 'iki'}</t>
-  </si>
-  <si>
-    <t>{'bizi', 'haydi', 'bekliyor', 'onların', 'evde', 'yanına'}</t>
-  </si>
-  <si>
-    <t>{'ikinci', 'biliyorsun', 'yalnız', 'araba', 'şöyle', 'ele'}</t>
-  </si>
-  <si>
-    <t>{'beş', 'üç', 'dört', 'altı', 'iki', 'sırada'}</t>
-  </si>
-  <si>
-    <t>{'babam', 'aldı', 'adamı', 'acaba', 'hangi', 'yanına'}</t>
-  </si>
-  <si>
-    <t>{'beri', 'alıp', 'tek', 'yolu', 'vardır', 'vermek'}</t>
-  </si>
-  <si>
-    <t>{'seninle', 'nefes', 'dört', 'defa', 'yıl', 'boyunca'}</t>
-  </si>
-  <si>
-    <t>{'alabilir', 'acaba', 'aşık', 'evde', 'kahve', 'miyim'}</t>
-  </si>
-  <si>
-    <t>{'mü', 'ol', 'geçti', 'sakin', 'bitti', 'gördün'}</t>
-  </si>
-  <si>
-    <t>{'üç', 'bin', 'neredeyse', 'iki', 'yıl', 'bakın'}</t>
-  </si>
-  <si>
-    <t>{'üç', 'beş', 'dört', 'önceki', 'iki', 'sırada'}</t>
-  </si>
-  <si>
-    <t>{'üç', 'beş', 'yukarı', 'aşağı', 'neyi', 'ol'}</t>
-  </si>
-  <si>
-    <t>{'çıkar', 'biliyorsun', 'baban', 'tabi', 'vardır', 'nereden'}</t>
-  </si>
-  <si>
-    <t>{'verdi', 'sekiz', 'milyon', 'adamlar', 'dolar', 'yüz'}</t>
-  </si>
-  <si>
-    <t>{'kendime', 'yapmış', 'sefer', 'olduğum', 'zarar', 'düşünüyorum'}</t>
-  </si>
-  <si>
-    <t>{'onları', 'gereken', 'gidip', 'olmadan', 'bazı', 'geç'}</t>
-  </si>
-  <si>
-    <t>{'vereceğim', 'falan', 'alır', 'vardır', 'çocuğun', 'ihtiyacı'}</t>
-  </si>
-  <si>
-    <t>{'rahat', 'bırakın', 'söylemek', 'kızı', 'istemiyor', 'yalan'}</t>
-  </si>
-  <si>
-    <t>{'yapamam', 'bile', 'ile', 'iki', 'kadın', 'evde'}</t>
-  </si>
-  <si>
-    <t>{'yukarı', 'aşağı', 'annem', 'sene', 'öldü', 'ondan'}</t>
-  </si>
-  <si>
-    <t>{'yanında', 'falan', 'gece', 'ihtiyacı', 'çocuğun', 'ol'}</t>
-  </si>
-  <si>
-    <t>{'rahat', 'bırakın', 'bizi', 'ile', 'haydi', 'gidin'}</t>
-  </si>
-  <si>
-    <t>{'bilgi', 'istiyorsan', 'yapacaksın', 'gidip', 'yanında', 'almak'}</t>
-  </si>
-  <si>
-    <t>{'soru', 'yarım', 'tehlikeli', 'sürü', 'gider', 'burası'}</t>
-  </si>
-  <si>
-    <t>{'bırakın', 'dışarı', 'falan', 'çık', 'al', 'ver'}</t>
-  </si>
-  <si>
-    <t>{'babam', 'içine', 'babamın', 'anne', 'sanırım', 'yoktur'}</t>
-  </si>
-  <si>
-    <t>{'adama', 'verdi', 'yerini', 'haber', 'adamın', 'yoktu'}</t>
-  </si>
-  <si>
-    <t>{'nefes', 'gereken', 'uzun', 'zamandır', 'gidiyorum', 'yapmaya'}</t>
-  </si>
-  <si>
-    <t>{'ikinci', 'kere', 'bakın', 'adamı', 'yanlış', 'içeri'}</t>
-  </si>
-  <si>
-    <t>{'bilgi', 'arka', 'tarafa', 'istedim', 'vermek', 'burası'}</t>
-  </si>
-  <si>
-    <t>{'mısınız', 'uzun', 'kez', 'zamandır', 'acaba', 'hep'}</t>
-  </si>
-  <si>
-    <t>{'üç', 'beş', 'bin', 'şuna', 'istemiyor', 'yüz'}</t>
-  </si>
-  <si>
-    <t>{'kal', 'ara', 'onlarla', 'sakin', 'tekrar', 'konuş'}</t>
-  </si>
-  <si>
-    <t>{'çıktı', 'bakma', 'yanında', 'kusura', 'değilim'}</t>
-  </si>
-  <si>
-    <t>{'çıktı', 'yapmış', 'küçük', 'görüyor', 'bakın'}</t>
-  </si>
-  <si>
-    <t>{'alıp', 'sizi', 'birisi', 'bin', 'sene'}</t>
-  </si>
-  <si>
-    <t>{'herhalde', 'yukarı', 'aşağı', 'defa', 'iki'}</t>
-  </si>
-  <si>
-    <t>{'baksana', 'saat', 'hem', 'git', 'geç'}</t>
-  </si>
-  <si>
-    <t>{'kızın', 'neydi', 'adı', 'acaba', 'hangi'}</t>
-  </si>
-  <si>
-    <t>{'bin', 'sekiz', 'altı', 'yazık', 'yüz'}</t>
-  </si>
-  <si>
-    <t>{'dikkatli', 'ona', 'söyledim', 'defa', 'ol'}</t>
-  </si>
-  <si>
-    <t>{'yarım', 'parayı', 'getir', 'saat', 'bul'}</t>
-  </si>
-  <si>
-    <t>{'olmaya', 'kere', 'sekiz', 'başladı', 'altı'}</t>
-  </si>
-  <si>
-    <t>{'izin', 'kimsenin', 'zorunda', 'değilsin', 'almak'}</t>
-  </si>
-  <si>
-    <t>{'sık', 'sıra', 'vereceğim', 'sonunda', 'şöyle'}</t>
-  </si>
-  <si>
-    <t>{'açık', 'karar', 'üzere', 'temiz', 'yolu'}</t>
-  </si>
-  <si>
-    <t>{'onları', 'göster', 'emin', 'kez'}</t>
-  </si>
-  <si>
-    <t>{'benden', 'haber', 'bekle', 'çabuk', 'git'}</t>
-  </si>
-  <si>
-    <t>{'üzerine', 'ölmüş', 'tabi', 'adamın', 'suç'}</t>
-  </si>
-  <si>
-    <t>{'işe', 'bitti', 'halde', 'gidiyorum', 'erken'}</t>
-  </si>
-  <si>
-    <t>{'yarım', 'bilmem', 'kalan', 'hatırlıyor', 'gece'}</t>
-  </si>
-  <si>
-    <t>{'benden', 'haber', 'kimseye', 'bekle', 'söyleme'}</t>
-  </si>
-  <si>
-    <t>{'canım', 'olsa', 'ortaya', 'yoktur', 'şimdiye'}</t>
-  </si>
-  <si>
-    <t>{'üç', 'birini', 'dört', 'iki', 'bakın'}</t>
-  </si>
-  <si>
-    <t>{'geceler', 'hayal', 'neyse', 'yalnız', 'gidiyorum'}</t>
-  </si>
-  <si>
-    <t>{'bilgi', 'kesin', 'ile', 'sürü', 'burası'}</t>
-  </si>
-  <si>
-    <t>{'hem', 'ondan', 'kahve', 'çalışıyorsun'}</t>
-  </si>
-  <si>
-    <t>{'üç', 'dört', 'ev', 'gelin', 'sizinle'}</t>
-  </si>
-  <si>
-    <t>{'üç', 'geri', 'ona', 'çıkar', 'oradan'}</t>
-  </si>
-  <si>
-    <t>{'canım', 'üstünde', 'bakma', 'kusura', 'el'}</t>
-  </si>
-  <si>
-    <t>{'benden', 'istiyorsunuz', 'bebeğim', 'el', 'bakın'}</t>
-  </si>
-  <si>
-    <t>{'canım', 'geceler', 'bay'}</t>
-  </si>
-  <si>
-    <t>{'üç', 'dört', 'yıldır', 'yıl', 'düşünüyorum'}</t>
-  </si>
-  <si>
-    <t>{'bile', 'geçen', 'yıl', 'dün', 'olmalı'}</t>
-  </si>
-  <si>
-    <t>{'üç', 'tercih', 'falan', 'iki', 'kez'}</t>
-  </si>
-  <si>
-    <t>{'bile', 'arkadaşım', 'olsa', 'bilirsin', 'yakın'}</t>
-  </si>
-  <si>
-    <t>{'parayı', 'gereken', 'üzere', 'bulmak', 'yolu'}</t>
-  </si>
-  <si>
-    <t>{'haydi', 'geç', 'içeri', 'ana', 'sende'}</t>
-  </si>
-  <si>
-    <t>{'onları', 'şöyle', 'aşağı', 'söylüyor', 'bakın'}</t>
-  </si>
-  <si>
-    <t>{'istedi', 'aldı', 'veya', 'çocukları', 'almak'}</t>
-  </si>
-  <si>
-    <t>{'bebek', 'uzun', 'gidip', 'zamandır', 'gelecek'}</t>
-  </si>
-  <si>
-    <t>{'parayı', 'dolar', 'bin', 'bilmiyordum'}</t>
-  </si>
-  <si>
-    <t>{'mesela', 'çocuklar', 'dört', 'yıl', 'boyunca'}</t>
-  </si>
-  <si>
-    <t>{'aynen', 'haydi', 'dalga', 'sıcak', 'su'}</t>
-  </si>
-  <si>
-    <t>{'buldum', 'üç', 'burayı', 'dört', 'sene'}</t>
-  </si>
-  <si>
-    <t>{'olacağını', 'vakti', 'buna', 'pek', 'sanmıyorum'}</t>
-  </si>
-  <si>
-    <t>{'birşey', 'orası', 'el', 'onların', 'evi'}</t>
-  </si>
-  <si>
-    <t>{'geri', 'karar', 'verdi', 'annem', 'almaya'}</t>
-  </si>
-  <si>
-    <t>{'şöyle', 'al', 'bakın', 'almaya', 'taraftan'}</t>
-  </si>
-  <si>
-    <t>{'erkek', 'bakma', 'kusura', 'arkadaşım', 'gitmem'}</t>
-  </si>
-  <si>
-    <t>{'bilgi', 'birçok', 'olmaya', 'başladı', 'birkaç'}</t>
-  </si>
-  <si>
-    <t>{'anlaşma', 'karar', 'verdi', 'ile', 'yapmaya'}</t>
-  </si>
-  <si>
-    <t>{'olmayacak', 'emin', 'gidecek', 'ol', 'yolunda'}</t>
-  </si>
-  <si>
-    <t>{'kızın', 'özel', 'falan', 'aşkına', 'vardır'}</t>
-  </si>
-  <si>
-    <t>{'bile', 'üç', 'bazen', 'gece', 'iki'}</t>
-  </si>
-  <si>
-    <t>{'istedi', 'benden', 'aldı', 'fikir', 'almak'}</t>
-  </si>
-  <si>
-    <t>{'bile', 'bin', 'alan', 'birkaç', 'dolar'}</t>
-  </si>
-  <si>
-    <t>{'göz', 'anne', 'istemiyor', 'ondan', 'yüz'}</t>
-  </si>
-  <si>
-    <t>{'otur', 'yerine', 'kes', 'aldın', 'sesini'}</t>
-  </si>
-  <si>
-    <t>{'değiliz', 'bizi', 'sakın', 'falan', 'yanlış'}</t>
-  </si>
-  <si>
-    <t>{'diyorsun', 'karar', 'emin', 'değilim', 'miyim'}</t>
-  </si>
-  <si>
-    <t>{'elinde', 'üzere', 'ona', 'olduğun', 'vermek'}</t>
-  </si>
-  <si>
-    <t>{'izin', 'verir', 'sanıyorsun', 'buna', 'miyim'}</t>
-  </si>
-  <si>
-    <t>{'birisi', 'ile', 'yanlış', 'ver', 'cevap'}</t>
-  </si>
-  <si>
-    <t>{'hayal', 'içeri', 'olup', 'gider', 'ondan'}</t>
-  </si>
-  <si>
-    <t>{'üzerinde', 'yol', 'bakın', 'ana', 'burası'}</t>
-  </si>
-  <si>
-    <t>{'bile', 'sebebi', 'sebep', 'geç', 'aman'}</t>
-  </si>
-  <si>
-    <t>{'ona', 'aferin', 'dedin', 'ana', 'sende'}</t>
-  </si>
-  <si>
-    <t>{'yaşında', 'sekiz', 'çocuğun', 'tıpkı'}</t>
-  </si>
-  <si>
-    <t>{'sakin', 'ihtiyacım', 'sessiz', 'buna', 'burası'}</t>
-  </si>
-  <si>
-    <t>{'ile', 'sürü', 'vermek', 'hayatta', 'almak'}</t>
-  </si>
-  <si>
-    <t>{'beş', 'bin', 'olsa', 'yaparım', 'iki'}</t>
-  </si>
-  <si>
-    <t>{'bile', 'ayrıca', 'baban', 'olsa', 'suçlu'}</t>
-  </si>
-  <si>
-    <t>{'çıktı', 'beş', 'dolayı', 'geç', 'yola'}</t>
-  </si>
-  <si>
-    <t>{'mesela', 'onlar', 'başladı', 'müzik', 'yapmaya'}</t>
+    <t>{'dört', 'yedi', 'beş', 'sekiz', 'tek', 'üç', 'altı', 'iki'}</t>
+  </si>
+  <si>
+    <t>{'dört', 'yedi', 'beş', 'sekiz', 'üç', 'altı', 'iki', 'harika'}</t>
+  </si>
+  <si>
+    <t>{'dört', 'yedi', 'beş', 'şöyle', 'sekiz', 'üç', 'altı', 'iki'}</t>
+  </si>
+  <si>
+    <t>{'dört', 'yedi', 'saat', 'beş', 'sekiz', 'üç', 'altı', 'iki'}</t>
+  </si>
+  <si>
+    <t>{'dört', 'yapacağız', 'beş', 'şöyle', 'üç', 'altı', 'iki'}</t>
+  </si>
+  <si>
+    <t>{'dışında', 'doğum', 'ölüm', 'evde', 'nedir', 'günü', 'ölü'}</t>
+  </si>
+  <si>
+    <t>{'izin', 'miyim', 'hem', 'buna', 'olsa', 'sence', 'verir'}</t>
+  </si>
+  <si>
+    <t>{'erken', 'ondan', 'beş', 'sene', 'yaşında', 'iki', 'bekle'}</t>
+  </si>
+  <si>
+    <t>{'dört', 'milyon', 'bin', 'yüz', 'sekiz', 'altı', 'teklif'}</t>
+  </si>
+  <si>
+    <t>{'falan', 'küçük', 'kere', 'beş', 'söyledim', 'yüz', 'benden'}</t>
+  </si>
+  <si>
+    <t>{'dört', 'yedi', 'beş', 'düşünüyor', 'üç', 'altı', 'iki'}</t>
+  </si>
+  <si>
+    <t>{'dört', 'ikinci', 'yedi', 'beş', 'üç', 'altı', 'iki'}</t>
+  </si>
+  <si>
+    <t>{'dolar', 'milyon', 'yüz', 'sekiz', 'benden', 'teslim'}</t>
+  </si>
+  <si>
+    <t>{'ona', 'gidip', 'yapacağız', 'işini', 'ev', 'söyledi'}</t>
+  </si>
+  <si>
+    <t>{'vermek', 'zarar', 'kendisi', 'olsa', 'istemiyor', 'bile'}</t>
+  </si>
+  <si>
+    <t>{'sefer', 'dört', 'yedi', 'beş', 'üç', 'altı'}</t>
+  </si>
+  <si>
+    <t>{'asıl', 'boş', 'hep', 'nasılsın', 'aman', 'ver'}</t>
+  </si>
+  <si>
+    <t>{'parayı', 'hasta', 'sakın', 'düşünüyor', 'çocukları', 'adamın'}</t>
+  </si>
+  <si>
+    <t>{'at', 'bitti', 'mü', 'bizi', 'sabah', 'geceler'}</t>
+  </si>
+  <si>
+    <t>{'kızın', 'git', 'burası', 'yeri', 'evine', 'getir'}</t>
+  </si>
+  <si>
+    <t>{'gidip', 'almak', 'bilgi', 'yerine', 'iki', 'oradan'}</t>
+  </si>
+  <si>
+    <t>{'dört', 'yedi', 'beş', 'üç', 'altı', 'tekrar'}</t>
+  </si>
+  <si>
+    <t>{'etme', 'sakin', 'canım', 'ol', 'gelecek', 'haber'}</t>
+  </si>
+  <si>
+    <t>{'erken', 'ediyorsun', 'sende', 'kabul', 'yaptığını', 'bazı'}</t>
+  </si>
+  <si>
+    <t>{'git', 'geldik', 'geç', 'bakın', 'çıkar', 'çek'}</t>
+  </si>
+  <si>
+    <t>{'kara', 'beyaz', 'mesela', 'dünya', 'yoktur', 'siyah'}</t>
+  </si>
+  <si>
+    <t>{'sonraki', 'beş', 'tüm', 'altı', 'veya', 'boyunca'}</t>
+  </si>
+  <si>
+    <t>{'dört', 'sıra', 'beş', 'üç', 'altı', 'iki'}</t>
+  </si>
+  <si>
+    <t>{'olmadan', 'dört', 'saat', 'kez', 'üç', 'bile'}</t>
+  </si>
+  <si>
+    <t>{'saat', 'suç', 'ciddi', 'nefes', 'olsa', 'iki'}</t>
+  </si>
+  <si>
+    <t>{'doktor', 'konuş', 'git', 'ile', 'durumu', 'anlat'}</t>
+  </si>
+  <si>
+    <t>{'dört', 'yedi', 'gördüm', 'beş', 'üç', 'altı'}</t>
+  </si>
+  <si>
+    <t>{'hep', 'yalnız', 'olmasın', 'onların', 'babası', 'anne'}</t>
+  </si>
+  <si>
+    <t>{'hangi', 'yapacağız', 'defa', 'sene', 'üç', 'iki'}</t>
+  </si>
+  <si>
+    <t>{'dört', 'beş', 'gizli', 'üç', 'tekrar', 'iki'}</t>
+  </si>
+  <si>
+    <t>{'gece', 'defa', 'yıl', 'rahat', 'altı', 'ile'}</t>
+  </si>
+  <si>
+    <t>{'dört', 'üzerinde', 'burayı', 'geçen', 'defa', 'dünya'}</t>
+  </si>
+  <si>
+    <t>{'karar', 'verici', 'babam', 'verir'}</t>
+  </si>
+  <si>
+    <t>{'boş', 'onlar', 'al', 'geç', 'emin', 'ver'}</t>
+  </si>
+  <si>
+    <t>{'dört', 'beş', 'üç', 'üzerine', 'tekrar', 'iki'}</t>
+  </si>
+  <si>
+    <t>{'haydi', 'yanına', 'bizi', 'evde', 'onların', 'bekliyor'}</t>
+  </si>
+  <si>
+    <t>{'biliyorsun', 'ikinci', 'araba', 'yalnız', 'şöyle', 'ele'}</t>
+  </si>
+  <si>
+    <t>{'dört', 'sırada', 'beş', 'üç', 'altı', 'iki'}</t>
+  </si>
+  <si>
+    <t>{'adamı', 'acaba', 'yanına', 'hangi', 'aldı', 'babam'}</t>
+  </si>
+  <si>
+    <t>{'vermek', 'vardır', 'alıp', 'yolu', 'tek', 'beri'}</t>
+  </si>
+  <si>
+    <t>{'dört', 'seninle', 'defa', 'yıl', 'nefes', 'boyunca'}</t>
+  </si>
+  <si>
+    <t>{'acaba', 'miyim', 'evde', 'kahve', 'aşık', 'alabilir'}</t>
+  </si>
+  <si>
+    <t>{'sakin', 'mü', 'bitti', 'geçti', 'ol', 'gördün'}</t>
+  </si>
+  <si>
+    <t>{'neredeyse', 'bin', 'yıl', 'bakın', 'üç', 'iki'}</t>
+  </si>
+  <si>
+    <t>{'dört', 'sırada', 'önceki', 'beş', 'üç', 'iki'}</t>
+  </si>
+  <si>
+    <t>{'ol', 'beş', 'neyi', 'yukarı', 'üç', 'aşağı'}</t>
+  </si>
+  <si>
+    <t>{'biliyorsun', 'vardır', 'tabi', 'baban', 'çıkar', 'nereden'}</t>
+  </si>
+  <si>
+    <t>{'dolar', 'milyon', 'yüz', 'sekiz', 'verdi', 'adamlar'}</t>
+  </si>
+  <si>
+    <t>{'sefer', 'olduğum', 'düşünüyorum', 'zarar', 'kendime', 'yapmış'}</t>
+  </si>
+  <si>
+    <t>{'olmadan', 'gidip', 'geç', 'onları', 'bazı', 'gereken'}</t>
+  </si>
+  <si>
+    <t>{'vardır', 'çocuğun', 'falan', 'ihtiyacı', 'vereceğim', 'alır'}</t>
+  </si>
+  <si>
+    <t>{'bırakın', 'söylemek', 'kızı', 'rahat', 'istemiyor', 'yalan'}</t>
+  </si>
+  <si>
+    <t>{'kadın', 'yapamam', 'evde', 'ile', 'bile', 'iki'}</t>
+  </si>
+  <si>
+    <t>{'ondan', 'annem', 'sene', 'yukarı', 'öldü', 'aşağı'}</t>
+  </si>
+  <si>
+    <t>{'çocuğun', 'falan', 'ihtiyacı', 'gece', 'ol', 'yanında'}</t>
+  </si>
+  <si>
+    <t>{'haydi', 'bırakın', 'bizi', 'rahat', 'ile', 'gidin'}</t>
+  </si>
+  <si>
+    <t>{'yapacaksın', 'gidip', 'istiyorsan', 'almak', 'bilgi', 'yanında'}</t>
+  </si>
+  <si>
+    <t>{'soru', 'tehlikeli', 'burası', 'yarım', 'gider', 'sürü'}</t>
+  </si>
+  <si>
+    <t>{'dışarı', 'falan', 'bırakın', 'al', 'çık', 'ver'}</t>
+  </si>
+  <si>
+    <t>{'babamın', 'içine', 'sanırım', 'yoktur', 'babam', 'anne'}</t>
+  </si>
+  <si>
+    <t>{'yoktu', 'verdi', 'haber', 'adama', 'yerini', 'adamın'}</t>
+  </si>
+  <si>
+    <t>{'zamandır', 'yapmaya', 'uzun', 'nefes', 'gidiyorum', 'gereken'}</t>
+  </si>
+  <si>
+    <t>{'ikinci', 'adamı', 'kere', 'içeri', 'bakın', 'yanlış'}</t>
+  </si>
+  <si>
+    <t>{'vermek', 'istedim', 'burası', 'bilgi', 'arka', 'tarafa'}</t>
+  </si>
+  <si>
+    <t>{'acaba', 'zamandır', 'hep', 'kez', 'uzun', 'mısınız'}</t>
+  </si>
+  <si>
+    <t>{'bin', 'şuna', 'beş', 'yüz', 'üç', 'istemiyor'}</t>
+  </si>
+  <si>
+    <t>{'ara', 'sakin', 'kal', 'konuş', 'onlarla', 'tekrar'}</t>
+  </si>
+  <si>
+    <t>{'değilim', 'bakma', 'yanında', 'çıktı', 'kusura'}</t>
+  </si>
+  <si>
+    <t>{'küçük', 'görüyor', 'bakın', 'çıktı', 'yapmış'}</t>
+  </si>
+  <si>
+    <t>{'sizi', 'bin', 'alıp', 'sene', 'birisi'}</t>
+  </si>
+  <si>
+    <t>{'herhalde', 'defa', 'yukarı', 'iki', 'aşağı'}</t>
+  </si>
+  <si>
+    <t>{'hem', 'geç', 'git', 'saat', 'baksana'}</t>
+  </si>
+  <si>
+    <t>{'acaba', 'hangi', 'kızın', 'adı', 'neydi'}</t>
+  </si>
+  <si>
+    <t>{'bin', 'yüz', 'sekiz', 'altı', 'yazık'}</t>
+  </si>
+  <si>
+    <t>{'ona', 'ol', 'defa', 'söyledim', 'dikkatli'}</t>
+  </si>
+  <si>
+    <t>{'parayı', 'saat', 'bul', 'yarım', 'getir'}</t>
+  </si>
+  <si>
+    <t>{'başladı', 'olmaya', 'kere', 'sekiz', 'altı'}</t>
+  </si>
+  <si>
+    <t>{'zorunda', 'izin', 'almak', 'değilsin', 'kimsenin'}</t>
+  </si>
+  <si>
+    <t>{'sonunda', 'sıra', 'şöyle', 'sık', 'vereceğim'}</t>
+  </si>
+  <si>
+    <t>{'açık', 'yolu', 'karar', 'temiz', 'üzere'}</t>
+  </si>
+  <si>
+    <t>{'onları', 'emin', 'kez', 'göster'}</t>
+  </si>
+  <si>
+    <t>{'git', 'haber', 'çabuk', 'benden', 'bekle'}</t>
+  </si>
+  <si>
+    <t>{'tabi', 'suç', 'üzerine', 'ölmüş', 'adamın'}</t>
+  </si>
+  <si>
+    <t>{'erken', 'işe', 'bitti', 'halde', 'gidiyorum'}</t>
+  </si>
+  <si>
+    <t>{'bilmem', 'kalan', 'gece', 'yarım', 'hatırlıyor'}</t>
+  </si>
+  <si>
+    <t>{'kimseye', 'haber', 'benden', 'söyleme', 'bekle'}</t>
+  </si>
+  <si>
+    <t>{'ortaya', 'canım', 'şimdiye', 'yoktur', 'olsa'}</t>
+  </si>
+  <si>
+    <t>{'dört', 'bakın', 'üç', 'birini', 'iki'}</t>
+  </si>
+  <si>
+    <t>{'yalnız', 'gidiyorum', 'hayal', 'neyse', 'geceler'}</t>
+  </si>
+  <si>
+    <t>{'burası', 'kesin', 'bilgi', 'ile', 'sürü'}</t>
+  </si>
+  <si>
+    <t>{'hem', 'kahve', 'ondan', 'çalışıyorsun'}</t>
+  </si>
+  <si>
+    <t>{'dört', 'sizinle', 'üç', 'gelin', 'ev'}</t>
+  </si>
+  <si>
+    <t>{'geri', 'ona', 'üç', 'çıkar', 'oradan'}</t>
+  </si>
+  <si>
+    <t>{'canım', 'bakma', 'üstünde', 'el', 'kusura'}</t>
+  </si>
+  <si>
+    <t>{'bakın', 'istiyorsunuz', 'el', 'bebeğim', 'benden'}</t>
+  </si>
+  <si>
+    <t>{'bay', 'geceler', 'canım'}</t>
+  </si>
+  <si>
+    <t>{'dört', 'yıl', 'üç', 'düşünüyorum', 'yıldır'}</t>
+  </si>
+  <si>
+    <t>{'olmalı', 'dün', 'geçen', 'yıl', 'bile'}</t>
+  </si>
+  <si>
+    <t>{'falan', 'kez', 'üç', 'iki', 'tercih'}</t>
+  </si>
+  <si>
+    <t>{'yakın', 'bilirsin', 'arkadaşım', 'olsa', 'bile'}</t>
+  </si>
+  <si>
+    <t>{'parayı', 'bulmak', 'yolu', 'üzere', 'gereken'}</t>
+  </si>
+  <si>
+    <t>{'haydi', 'ana', 'sende', 'geç', 'içeri'}</t>
+  </si>
+  <si>
+    <t>{'söylüyor', 'şöyle', 'onları', 'bakın', 'aşağı'}</t>
+  </si>
+  <si>
+    <t>{'istedi', 'aldı', 'almak', 'çocukları', 'veya'}</t>
+  </si>
+  <si>
+    <t>{'bebek', 'zamandır', 'gidip', 'gelecek', 'uzun'}</t>
+  </si>
+  <si>
+    <t>{'parayı', 'bilmiyordum', 'bin', 'dolar'}</t>
+  </si>
+  <si>
+    <t>{'dört', 'çocuklar', 'yıl', 'mesela', 'boyunca'}</t>
+  </si>
+  <si>
+    <t>{'haydi', 'sıcak', 'su', 'aynen', 'dalga'}</t>
+  </si>
+  <si>
+    <t>{'dört', 'burayı', 'sene', 'üç', 'buldum'}</t>
+  </si>
+  <si>
+    <t>{'sanmıyorum', 'buna', 'pek', 'vakti', 'olacağını'}</t>
+  </si>
+  <si>
+    <t>{'orası', 'birşey', 'onların', 'el', 'evi'}</t>
+  </si>
+  <si>
+    <t>{'geri', 'annem', 'verdi', 'karar', 'almaya'}</t>
+  </si>
+  <si>
+    <t>{'al', 'şöyle', 'taraftan', 'bakın', 'almaya'}</t>
+  </si>
+  <si>
+    <t>{'bakma', 'arkadaşım', 'erkek', 'kusura', 'gitmem'}</t>
+  </si>
+  <si>
+    <t>{'birkaç', 'başladı', 'olmaya', 'bilgi', 'birçok'}</t>
+  </si>
+  <si>
+    <t>{'yapmaya', 'verdi', 'karar', 'anlaşma', 'ile'}</t>
+  </si>
+  <si>
+    <t>{'ol', 'gidecek', 'olmayacak', 'emin', 'yolunda'}</t>
+  </si>
+  <si>
+    <t>{'vardır', 'falan', 'özel', 'kızın', 'aşkına'}</t>
+  </si>
+  <si>
+    <t>{'bazen', 'gece', 'üç', 'bile', 'iki'}</t>
+  </si>
+  <si>
+    <t>{'istedi', 'aldı', 'almak', 'fikir', 'benden'}</t>
+  </si>
+  <si>
+    <t>{'birkaç', 'dolar', 'bin', 'alan', 'bile'}</t>
+  </si>
+  <si>
+    <t>{'göz', 'ondan', 'yüz', 'istemiyor', 'anne'}</t>
+  </si>
+  <si>
+    <t>{'sesini', 'otur', 'kes', 'yerine', 'aldın'}</t>
+  </si>
+  <si>
+    <t>{'falan', 'sakın', 'değiliz', 'bizi', 'yanlış'}</t>
+  </si>
+  <si>
+    <t>{'değilim', 'miyim', 'karar', 'emin', 'diyorsun'}</t>
+  </si>
+  <si>
+    <t>{'vermek', 'ona', 'elinde', 'olduğun', 'üzere'}</t>
+  </si>
+  <si>
+    <t>{'sanıyorsun', 'izin', 'miyim', 'buna', 'verir'}</t>
+  </si>
+  <si>
+    <t>{'cevap', 'birisi', 'ile', 'yanlış', 'ver'}</t>
+  </si>
+  <si>
+    <t>{'ondan', 'olup', 'içeri', 'hayal', 'gider'}</t>
+  </si>
+  <si>
+    <t>{'ana', 'üzerinde', 'burası', 'bakın', 'yol'}</t>
+  </si>
+  <si>
+    <t>{'sebebi', 'sebep', 'geç', 'aman', 'bile'}</t>
+  </si>
+  <si>
+    <t>{'aferin', 'ana', 'sende', 'ona', 'dedin'}</t>
+  </si>
+  <si>
+    <t>{'tıpkı', 'çocuğun', 'yaşında', 'sekiz'}</t>
+  </si>
+  <si>
+    <t>{'sakin', 'ihtiyacım', 'sessiz', 'burası', 'buna'}</t>
+  </si>
+  <si>
+    <t>{'hayatta', 'vermek', 'almak', 'ile', 'sürü'}</t>
+  </si>
+  <si>
+    <t>{'bin', 'beş', 'yaparım', 'olsa', 'iki'}</t>
+  </si>
+  <si>
+    <t>{'ayrıca', 'suçlu', 'baban', 'olsa', 'bile'}</t>
+  </si>
+  <si>
+    <t>{'geç', 'dolayı', 'beş', 'yola', 'çıktı'}</t>
+  </si>
+  <si>
+    <t>{'başladı', 'onlar', 'yapmaya', 'müzik', 'mesela'}</t>
   </si>
   <si>
     <t>{'gelecek', 'sene', 'sizi', 'üzgünüm'}</t>
   </si>
   <si>
-    <t>{'geri', 'alıp', 'yukarı', 'tekrar', 'güç'}</t>
-  </si>
-  <si>
-    <t>{'konuşma', 'otur', 'boş', 'yerine', 'git'}</t>
-  </si>
-  <si>
-    <t>{'berbat', 'burda', 'çocuklar', 'hep', 'burası'}</t>
-  </si>
-  <si>
-    <t>{'ediyorsun', 'karar', 'seviyor', 'ver', 'nefret'}</t>
-  </si>
-  <si>
-    <t>{'üç', 'bin', 'görünüyor', 'altı', 'yüz'}</t>
-  </si>
-  <si>
-    <t>{'karar', 'ona', 'kendisi', 'verir', 'tamamen'}</t>
-  </si>
-  <si>
-    <t>{'iki', 'görüyor', 'sene', 'el', 'hatırlıyorum'}</t>
-  </si>
-  <si>
-    <t>{'sizi', 'haber', 'edeyim', 'gördüm', 'su'}</t>
-  </si>
-  <si>
-    <t>{'konusunda', 'mesela', 'bazen', 'izin', 'falan'}</t>
-  </si>
-  <si>
-    <t>{'yapamam', 'birşey', 'saat', 'oradan', 'başkan'}</t>
-  </si>
-  <si>
-    <t>{'falan', 'hem', 'olmayacak', 'değilim', 'dersin'}</t>
-  </si>
-  <si>
-    <t>{'sizi', 'biliyorsun', 'vakit', 'olsa', 'durumu'}</t>
-  </si>
-  <si>
-    <t>{'üstünde', 'uzun', 'oldukça', 'iki', 'sene'}</t>
-  </si>
-  <si>
-    <t>{'baş', 'göz', 'sizi', 'mü', 'edeyim'}</t>
-  </si>
-  <si>
-    <t>{'kere', 'gece', 'dürüst', 'ol', 'dün'}</t>
-  </si>
-  <si>
-    <t>{'üç', 'geldiğini', 'beş', 'yukarı', 'aşağı'}</t>
-  </si>
-  <si>
-    <t>{'mükemmel', 'söyledim', 'git', 'konuş', 'yalan'}</t>
-  </si>
-  <si>
-    <t>{'çıkar', 'yavaş', 'mükemmel', 'ortaya', 'fikir'}</t>
-  </si>
-  <si>
-    <t>{'edeceğim', 'yıl', 'sene', 'geçen', 'yapmaya'}</t>
-  </si>
-  <si>
-    <t>{'yarım', 'saat', 'rağmen', 'tekrar', 'gidiyoruz'}</t>
-  </si>
-  <si>
-    <t>{'al', 'temiz', 'yeterince', 'burası', 'istersen'}</t>
-  </si>
-  <si>
-    <t>{'canım', 'günaydın', 'otur', 'şöyle', 'geç'}</t>
-  </si>
-  <si>
-    <t>{'alacağım', 'beş', 'yukarı', 'aşağı', 'altı'}</t>
-  </si>
-  <si>
-    <t>{'geri', 'saat', 'birkaç', 'konuşmak', 'yoktu'}</t>
-  </si>
-  <si>
-    <t>{'gayet', 'falan', 'iyiyim', 'değilim', 'hasta'}</t>
-  </si>
-  <si>
-    <t>{'herhalde', 'baban', 'kalk', 'çabuk', 'herif'}</t>
-  </si>
-  <si>
-    <t>{'duyuyor', 'çocuklar', 'aferin', 'gurur', 'sizinle'}</t>
-  </si>
-  <si>
-    <t>{'canım', 'ile', 'alan', 'arabayı', 'ev'}</t>
-  </si>
-  <si>
-    <t>{'ona', 'bakma', 'edeyim', 'al', 'tatlım'}</t>
-  </si>
-  <si>
-    <t>{'olmasın', 'rahat', 'edeyim', 'hareket', 'aman'}</t>
-  </si>
-  <si>
-    <t>{'bin', 'kere', 'söyledi', 'yalan', 'söyledin'}</t>
-  </si>
-  <si>
-    <t>{'al', 'geç', 'çocukları', 'içeri', 'dinle'}</t>
-  </si>
-  <si>
-    <t>{'ile', 'iki', 'kadın', 'küçük', 'zavallı'}</t>
-  </si>
-  <si>
-    <t>{'mesela', 'anne', 'söylüyor', 'istediğini', 'kadın'}</t>
-  </si>
-  <si>
-    <t>{'üç', 'çocuklar', 'iç', 'sene', 'boyunca'}</t>
-  </si>
-  <si>
-    <t>{'mesela', 'dışarıda', 'içeri', 'su', 'almak'}</t>
-  </si>
-  <si>
-    <t>{'ile', 'dinleyin', 'sert', 'yemin', 'yalan'}</t>
-  </si>
-  <si>
-    <t>{'asıl', 'aptal', 'onlar', 'falan', 'değilsin'}</t>
-  </si>
-  <si>
-    <t>{'yerini', 'araba', 'ver', 'sene', 'önünde'}</t>
-  </si>
-  <si>
-    <t>{'kalan', 'kan', 'temiz', 'olup', 'ana'}</t>
-  </si>
-  <si>
-    <t>{'sevgili', 'sakın', 'gidip', 'arkadaşım', 'unutma'}</t>
-  </si>
-  <si>
-    <t>{'seninle', 'gelmek', 'söyledi', 'istediğini', 'konuşmak'}</t>
-  </si>
-  <si>
-    <t>{'eden', 'üzere', 'sonunda', 'yol', 'hareket'}</t>
-  </si>
-  <si>
-    <t>{'birçok', 'yapmış', 'numara', 'görev', 'kez'}</t>
-  </si>
-  <si>
-    <t>{'bakma', 'özel', 'kusura', 'gidiyorum', 'düşün'}</t>
-  </si>
-  <si>
-    <t>{'alıp', 'gelmek', 'falan', 'hoşuma', 'su'}</t>
-  </si>
-  <si>
-    <t>{'al', 'ver', 'selam', 'git', 'çek'}</t>
-  </si>
-  <si>
-    <t>{'canım', 'görmedim', 'sizi', 'bakma', 'kusura'}</t>
-  </si>
-  <si>
-    <t>{'benden', 'ona', 'ateş', 'gelmiş', 'yanına'}</t>
-  </si>
-  <si>
-    <t>{'bilgi', 'ona', 'dair', 'vermek', 'nedir'}</t>
-  </si>
-  <si>
-    <t>{'çıktı', 'haklı', 'sonunda', 'olduğum', 'ortaya'}</t>
-  </si>
-  <si>
-    <t>{'canım', 'şeyden', 'yalnız', 'gece', 'uzak'}</t>
-  </si>
-  <si>
-    <t>{'beri', 'geldiğini', 'babamın', 'konu', 'hangi'}</t>
-  </si>
-  <si>
-    <t>{'ufak', 'çıkar', 'onlar', 'siyah', 'tek'}</t>
-  </si>
-  <si>
-    <t>{'baş', 'ile', 'üçüncü', 'iki', 'kadın'}</t>
-  </si>
-  <si>
-    <t>{'bile', 'bizi', 'düşünüyor', 'ayrıca', 'umurumda'}</t>
-  </si>
-  <si>
-    <t>{'çıkar', 'kendisi', 'gece', 'ortaya', 'umarım'}</t>
-  </si>
-  <si>
-    <t>{'mü', 'karşı', 'yanında', 'gördün', 'hep'}</t>
-  </si>
-  <si>
-    <t>{'geceler', 'üç', 'dört', 'birden', 'bazı'}</t>
-  </si>
-  <si>
-    <t>{'geldiğini', 'bazen', 'tüm', 'üzerine', 'dünyanın'}</t>
-  </si>
-  <si>
-    <t>{'yalnız', 'olduğumu', 'evde', 'hasta', 'zavallı'}</t>
-  </si>
-  <si>
-    <t>{'onlar', 'olsa', 'müzik', 'aman', 'dans'}</t>
-  </si>
-  <si>
-    <t>{'çıktı', 'acil', 'babamın', 'yukarı', 'çık'}</t>
-  </si>
-  <si>
-    <t>{'hayal', 'neydi', 'kızı', 'miydi', 'küçük'}</t>
-  </si>
-  <si>
-    <t>{'herhalde', 'orası', 'eski', 'tek', 'vardır'}</t>
-  </si>
-  <si>
-    <t>{'yedi', 'tekrar', 'altı', 'sene', 'kapıyı'}</t>
-  </si>
-  <si>
-    <t>{'üç', 'beş', 'erkek', 'yaşlı', 'kadın'}</t>
-  </si>
-  <si>
-    <t>{'sizi', 'mesela', 'azından', 'yaparım', 'hep'}</t>
-  </si>
-  <si>
-    <t>{'olduğumu', 'hissediyorum', 'söylemek', 'zorunda', 'gerçeği'}</t>
-  </si>
-  <si>
-    <t>{'onları', 'otur', 'sıkı', 'şöyle', 'tut'}</t>
-  </si>
-  <si>
-    <t>{'üç', 'olayı', 'kere', 'iki', 'ondan'}</t>
-  </si>
-  <si>
-    <t>{'elinde', 'geri', 'zamanı', 'olsa', 'almak'}</t>
-  </si>
-  <si>
-    <t>{'bile', 'veya', 'kavga', 'anne', 'tarafından'}</t>
-  </si>
-  <si>
-    <t>{'ona', 'saat', 'teslim', 'gelecek', 'silahı'}</t>
-  </si>
-  <si>
-    <t>{'rahat', 'üç', 'gerekiyordu', 'şöyle', 'iki'}</t>
-  </si>
-  <si>
-    <t>{'üç', 'bin', 'dört', 'yıldır', 'hayat'}</t>
-  </si>
-  <si>
-    <t>{'dört', 'görünüşe', 'düşünüyorum'}</t>
-  </si>
-  <si>
-    <t>{'neyse', 'yaptın', 'boş', 'ver', 'aman'}</t>
-  </si>
-  <si>
-    <t>{'rahat', 'bırakın', 'bulduk', 'bizi', 'ile'}</t>
-  </si>
-  <si>
-    <t>{'dostum', 'ol', 'hey', 'sakin'}</t>
-  </si>
-  <si>
-    <t>{'karar', 'ona', 'uygun', 'buna', 'değilsin'}</t>
-  </si>
-  <si>
-    <t>{'parti', 'bin', 'milyon', 'iki', 'yüz'}</t>
-  </si>
-  <si>
-    <t>{'edin', 'zamanı', 'mükemmel', 'hareket', 'erken'}</t>
-  </si>
-  <si>
-    <t>{'şans', 'ona', 'ver', 'emin', 'ol'}</t>
-  </si>
-  <si>
-    <t>{'üç', 'ile', 'bitti', 'arkadaşın', 'yakın'}</t>
-  </si>
-  <si>
-    <t>{'geri', 'ona', 'hayatını', 'kalan', 'ver'}</t>
-  </si>
-  <si>
-    <t>{'gereken', 'üç', 'bölüm', 'tek', 'boyunca'}</t>
-  </si>
-  <si>
-    <t>{'göz', 'sizi', 'altında', 'altına', 'almak'}</t>
-  </si>
-  <si>
-    <t>{'gitsin', 'boş', 'olsa', 'ver', 'ateş'}</t>
-  </si>
-  <si>
-    <t>{'rahat', 'edin', 'haber', 'bekleyin', 'gidin'}</t>
-  </si>
-  <si>
-    <t>{'elinde', 'tekrar', 'özellikle', 'başladı'}</t>
-  </si>
-  <si>
-    <t>{'zamandır', 'aynen', 'uzun', 'sağol'}</t>
-  </si>
-  <si>
-    <t>{'ile', 'cinayet', 'teslim', 'silahı'}</t>
-  </si>
-  <si>
-    <t>{'adamın', 'evine', 'gidiyorsun', 'nedir'}</t>
-  </si>
-  <si>
-    <t>{'çeviri', 'bitti', 'özel', 'mesela'}</t>
-  </si>
-  <si>
-    <t>{'seninle', 'gurur', 'duydum', 'sevindim'}</t>
-  </si>
-  <si>
-    <t>{'suçlu', 'şeyden', 'gelen', 'değilsin'}</t>
-  </si>
-  <si>
-    <t>{'vermek', 'iki', 'karar', 'tür'}</t>
-  </si>
-  <si>
-    <t>{'buldum', 'güvenli', 'etme', 'ev'}</t>
-  </si>
-  <si>
-    <t>{'gidip', 'sende', 'serbest', 'adamı'}</t>
-  </si>
-  <si>
-    <t>{'görüyor', 'gelmiş', 'hale', 'ev'}</t>
-  </si>
-  <si>
-    <t>{'sanırım', 'dolayı', 'sizi', 'anlıyorum'}</t>
+    <t>{'geri', 'alıp', 'yukarı', 'güç', 'tekrar'}</t>
+  </si>
+  <si>
+    <t>{'otur', 'boş', 'git', 'konuşma', 'yerine'}</t>
+  </si>
+  <si>
+    <t>{'burda', 'berbat', 'çocuklar', 'hep', 'burası'}</t>
+  </si>
+  <si>
+    <t>{'ediyorsun', 'nefret', 'karar', 'seviyor', 'ver'}</t>
+  </si>
+  <si>
+    <t>{'görünüyor', 'bin', 'yüz', 'altı', 'üç'}</t>
+  </si>
+  <si>
+    <t>{'ona', 'kendisi', 'karar', 'tamamen', 'verir'}</t>
+  </si>
+  <si>
+    <t>{'görüyor', 'sene', 'el', 'hatırlıyorum', 'iki'}</t>
+  </si>
+  <si>
+    <t>{'sizi', 'gördüm', 'edeyim', 'haber', 'su'}</t>
+  </si>
+  <si>
+    <t>{'bazen', 'falan', 'izin', 'konusunda', 'mesela'}</t>
+  </si>
+  <si>
+    <t>{'yapamam', 'başkan', 'saat', 'birşey', 'oradan'}</t>
+  </si>
+  <si>
+    <t>{'değilim', 'falan', 'hem', 'dersin', 'olmayacak'}</t>
+  </si>
+  <si>
+    <t>{'biliyorsun', 'sizi', 'vakit', 'olsa', 'durumu'}</t>
+  </si>
+  <si>
+    <t>{'üstünde', 'sene', 'uzun', 'iki', 'oldukça'}</t>
+  </si>
+  <si>
+    <t>{'göz', 'mü', 'sizi', 'edeyim', 'baş'}</t>
+  </si>
+  <si>
+    <t>{'dürüst', 'dün', 'gece', 'ol', 'kere'}</t>
+  </si>
+  <si>
+    <t>{'geldiğini', 'beş', 'yukarı', 'üç', 'aşağı'}</t>
+  </si>
+  <si>
+    <t>{'konuş', 'git', 'mükemmel', 'söyledim', 'yalan'}</t>
+  </si>
+  <si>
+    <t>{'ortaya', 'yavaş', 'mükemmel', 'fikir', 'çıkar'}</t>
+  </si>
+  <si>
+    <t>{'geçen', 'edeceğim', 'yapmaya', 'yıl', 'sene'}</t>
+  </si>
+  <si>
+    <t>{'gidiyoruz', 'saat', 'yarım', 'tekrar', 'rağmen'}</t>
+  </si>
+  <si>
+    <t>{'yeterince', 'burası', 'al', 'temiz', 'istersen'}</t>
+  </si>
+  <si>
+    <t>{'canım', 'otur', 'geç', 'şöyle', 'günaydın'}</t>
+  </si>
+  <si>
+    <t>{'alacağım', 'beş', 'yukarı', 'altı', 'aşağı'}</t>
+  </si>
+  <si>
+    <t>{'birkaç', 'geri', 'yoktu', 'saat', 'konuşmak'}</t>
+  </si>
+  <si>
+    <t>{'iyiyim', 'değilim', 'falan', 'gayet', 'hasta'}</t>
+  </si>
+  <si>
+    <t>{'herhalde', 'kalk', 'baban', 'çabuk', 'herif'}</t>
+  </si>
+  <si>
+    <t>{'gurur', 'aferin', 'sizinle', 'çocuklar', 'duyuyor'}</t>
+  </si>
+  <si>
+    <t>{'canım', 'alan', 'ile', 'arabayı', 'ev'}</t>
+  </si>
+  <si>
+    <t>{'bakma', 'ona', 'al', 'edeyim', 'tatlım'}</t>
+  </si>
+  <si>
+    <t>{'olmasın', 'edeyim', 'rahat', 'aman', 'hareket'}</t>
+  </si>
+  <si>
+    <t>{'söyledin', 'kere', 'bin', 'yalan', 'söyledi'}</t>
+  </si>
+  <si>
+    <t>{'al', 'geç', 'dinle', 'içeri', 'çocukları'}</t>
+  </si>
+  <si>
+    <t>{'küçük', 'kadın', 'ile', 'zavallı', 'iki'}</t>
+  </si>
+  <si>
+    <t>{'söylüyor', 'kadın', 'istediğini', 'mesela', 'anne'}</t>
+  </si>
+  <si>
+    <t>{'çocuklar', 'boyunca', 'sene', 'üç', 'iç'}</t>
+  </si>
+  <si>
+    <t>{'dışarıda', 'mesela', 'almak', 'içeri', 'su'}</t>
+  </si>
+  <si>
+    <t>{'dinleyin', 'ile', 'sert', 'yalan', 'yemin'}</t>
+  </si>
+  <si>
+    <t>{'falan', 'asıl', 'onlar', 'değilsin', 'aptal'}</t>
+  </si>
+  <si>
+    <t>{'araba', 'sene', 'önünde', 'ver', 'yerini'}</t>
+  </si>
+  <si>
+    <t>{'kalan', 'ana', 'kan', 'olup', 'temiz'}</t>
+  </si>
+  <si>
+    <t>{'sakın', 'gidip', 'arkadaşım', 'sevgili', 'unutma'}</t>
+  </si>
+  <si>
+    <t>{'gelmek', 'seninle', 'istediğini', 'konuşmak', 'söyledi'}</t>
+  </si>
+  <si>
+    <t>{'sonunda', 'eden', 'üzere', 'hareket', 'yol'}</t>
+  </si>
+  <si>
+    <t>{'kez', 'birçok', 'yapmış', 'numara', 'görev'}</t>
+  </si>
+  <si>
+    <t>{'özel', 'bakma', 'gidiyorum', 'düşün', 'kusura'}</t>
+  </si>
+  <si>
+    <t>{'falan', 'hoşuma', 'alıp', 'su', 'gelmek'}</t>
+  </si>
+  <si>
+    <t>{'al', 'git', 'selam', 'ver', 'çek'}</t>
+  </si>
+  <si>
+    <t>{'canım', 'sizi', 'bakma', 'görmedim', 'kusura'}</t>
+  </si>
+  <si>
+    <t>{'yanına', 'ona', 'ateş', 'benden', 'gelmiş'}</t>
+  </si>
+  <si>
+    <t>{'vermek', 'ona', 'bilgi', 'nedir', 'dair'}</t>
+  </si>
+  <si>
+    <t>{'ortaya', 'sonunda', 'olduğum', 'haklı', 'çıktı'}</t>
+  </si>
+  <si>
+    <t>{'canım', 'gece', 'yalnız', 'şeyden', 'uzak'}</t>
+  </si>
+  <si>
+    <t>{'geldiğini', 'hangi', 'babamın', 'konu', 'beri'}</t>
+  </si>
+  <si>
+    <t>{'onlar', 'tek', 'çıkar', 'ufak', 'siyah'}</t>
+  </si>
+  <si>
+    <t>{'kadın', 'baş', 'ile', 'üçüncü', 'iki'}</t>
+  </si>
+  <si>
+    <t>{'ayrıca', 'bizi', 'düşünüyor', 'umurumda', 'bile'}</t>
+  </si>
+  <si>
+    <t>{'ortaya', 'gece', 'kendisi', 'çıkar', 'umarım'}</t>
+  </si>
+  <si>
+    <t>{'mü', 'hep', 'yanında', 'gördün', 'karşı'}</t>
+  </si>
+  <si>
+    <t>{'dört', 'birden', 'üç', 'geceler', 'bazı'}</t>
+  </si>
+  <si>
+    <t>{'bazen', 'dünyanın', 'geldiğini', 'tüm', 'üzerine'}</t>
+  </si>
+  <si>
+    <t>{'hasta', 'yalnız', 'olduğumu', 'evde', 'zavallı'}</t>
+  </si>
+  <si>
+    <t>{'onlar', 'müzik', 'aman', 'olsa', 'dans'}</t>
+  </si>
+  <si>
+    <t>{'acil', 'babamın', 'yukarı', 'çık', 'çıktı'}</t>
+  </si>
+  <si>
+    <t>{'miydi', 'küçük', 'kızı', 'hayal', 'neydi'}</t>
+  </si>
+  <si>
+    <t>{'vardır', 'orası', 'eski', 'herhalde', 'tek'}</t>
+  </si>
+  <si>
+    <t>{'yedi', 'sene', 'altı', 'tekrar', 'kapıyı'}</t>
+  </si>
+  <si>
+    <t>{'kadın', 'beş', 'erkek', 'üç', 'yaşlı'}</t>
+  </si>
+  <si>
+    <t>{'sizi', 'hep', 'yaparım', 'mesela', 'azından'}</t>
+  </si>
+  <si>
+    <t>{'hissediyorum', 'zorunda', 'gerçeği', 'olduğumu', 'söylemek'}</t>
+  </si>
+  <si>
+    <t>{'otur', 'şöyle', 'onları', 'tut', 'sıkı'}</t>
+  </si>
+  <si>
+    <t>{'ondan', 'kere', 'olayı', 'üç', 'iki'}</t>
+  </si>
+  <si>
+    <t>{'geri', 'elinde', 'zamanı', 'almak', 'olsa'}</t>
+  </si>
+  <si>
+    <t>{'tarafından', 'kavga', 'bile', 'veya', 'anne'}</t>
+  </si>
+  <si>
+    <t>{'ona', 'gelecek', 'saat', 'silahı', 'teslim'}</t>
+  </si>
+  <si>
+    <t>{'gerekiyordu', 'şöyle', 'rahat', 'üç', 'iki'}</t>
+  </si>
+  <si>
+    <t>{'dört', 'bin', 'hayat', 'üç', 'yıldır'}</t>
+  </si>
+  <si>
+    <t>{'düşünüyorum', 'görünüşe', 'dört'}</t>
+  </si>
+  <si>
+    <t>{'boş', 'yaptın', 'aman', 'neyse', 'ver'}</t>
+  </si>
+  <si>
+    <t>{'bırakın', 'bizi', 'rahat', 'ile', 'bulduk'}</t>
+  </si>
+  <si>
+    <t>{'ol', 'hey', 'sakin', 'dostum'}</t>
+  </si>
+  <si>
+    <t>{'uygun', 'ona', 'buna', 'karar', 'değilsin'}</t>
+  </si>
+  <si>
+    <t>{'milyon', 'bin', 'parti', 'yüz', 'iki'}</t>
+  </si>
+  <si>
+    <t>{'erken', 'mükemmel', 'zamanı', 'edin', 'hareket'}</t>
+  </si>
+  <si>
+    <t>{'ona', 'ol', 'şans', 'emin', 'ver'}</t>
+  </si>
+  <si>
+    <t>{'yakın', 'bitti', 'arkadaşın', 'üç', 'ile'}</t>
+  </si>
+  <si>
+    <t>{'kalan', 'geri', 'ona', 'hayatını', 'ver'}</t>
+  </si>
+  <si>
+    <t>{'tek', 'üç', 'bölüm', 'gereken', 'boyunca'}</t>
+  </si>
+  <si>
+    <t>{'göz', 'altına', 'sizi', 'almak', 'altında'}</t>
+  </si>
+  <si>
+    <t>{'boş', 'gitsin', 'ateş', 'olsa', 'ver'}</t>
+  </si>
+  <si>
+    <t>{'bekleyin', 'haber', 'rahat', 'edin', 'gidin'}</t>
+  </si>
+  <si>
+    <t>{'tekrar', 'elinde', 'özellikle', 'başladı'}</t>
+  </si>
+  <si>
+    <t>{'uzun', 'aynen', 'sağol', 'zamandır'}</t>
+  </si>
+  <si>
+    <t>{'silahı', 'ile', 'cinayet', 'teslim'}</t>
+  </si>
+  <si>
+    <t>{'evine', 'gidiyorsun', 'nedir', 'adamın'}</t>
+  </si>
+  <si>
+    <t>{'mesela', 'çeviri', 'özel', 'bitti'}</t>
+  </si>
+  <si>
+    <t>{'gurur', 'duydum', 'seninle', 'sevindim'}</t>
+  </si>
+  <si>
+    <t>{'değilsin', 'şeyden', 'gelen', 'suçlu'}</t>
+  </si>
+  <si>
+    <t>{'karar', 'tür', 'iki', 'vermek'}</t>
+  </si>
+  <si>
+    <t>{'etme', 'güvenli', 'ev', 'buldum'}</t>
+  </si>
+  <si>
+    <t>{'gidip', 'adamı', 'serbest', 'sende'}</t>
+  </si>
+  <si>
+    <t>{'gelmiş', 'ev', 'görüyor', 'hale'}</t>
+  </si>
+  <si>
+    <t>{'anlıyorum', 'dolayı', 'sizi', 'sanırım'}</t>
   </si>
   <si>
     <t>{'fena', 'üstünde', 'yol', 'durumu'}</t>
   </si>
   <si>
-    <t>{'ciddi', 'altı', 'yeterince', 'dolu'}</t>
-  </si>
-  <si>
-    <t>{'kapa', 'ver', 'karar'}</t>
-  </si>
-  <si>
-    <t>{'vermek', 'zarar', 'ister', 'miyim'}</t>
-  </si>
-  <si>
-    <t>{'buldum', 'sanırım', 'millet', 'olmalı'}</t>
-  </si>
-  <si>
-    <t>{'görüyorum', 'söylüyor', 'yalan', 'birini'}</t>
-  </si>
-  <si>
-    <t>{'yolu', 'gidip', 'insanların', 'ara'}</t>
-  </si>
-  <si>
-    <t>{'görüyorum', 'herkesin', 'bazen', 'evi'}</t>
-  </si>
-  <si>
-    <t>{'dua', 'ele', 'sizi', 'edin'}</t>
-  </si>
-  <si>
-    <t>{'buna', 'benziyor', 'gördün', 'mü'}</t>
-  </si>
-  <si>
-    <t>{'hareket', 'sabah', 'köpek', 'ihtiyacı'}</t>
-  </si>
-  <si>
-    <t>{'zorundayım', 'diyorsun', 'öldürmek', 'adamı'}</t>
-  </si>
-  <si>
-    <t>{'bayım', 'tehlikeli'}</t>
-  </si>
-  <si>
-    <t>{'canım', 'adına', 'konuş', 'gayet'}</t>
-  </si>
-  <si>
-    <t>{'gelin', 'sabah', 'iyisi', 'gidin'}</t>
-  </si>
-  <si>
-    <t>{'dostum', 'emin', 'ol', 'sevgili'}</t>
-  </si>
-  <si>
-    <t>{'ile', 'hem', 'kadın', 'ajan'}</t>
-  </si>
-  <si>
-    <t>{'aşık', 'öyleyse', 'sende', 'ona'}</t>
+    <t>{'altı', 'ciddi', 'dolu', 'yeterince'}</t>
+  </si>
+  <si>
+    <t>{'karar', 'kapa', 'ver'}</t>
+  </si>
+  <si>
+    <t>{'vermek', 'ister', 'miyim', 'zarar'}</t>
+  </si>
+  <si>
+    <t>{'millet', 'sanırım', 'olmalı', 'buldum'}</t>
+  </si>
+  <si>
+    <t>{'görüyorum', 'söylüyor', 'birini', 'yalan'}</t>
+  </si>
+  <si>
+    <t>{'gidip', 'ara', 'insanların', 'yolu'}</t>
+  </si>
+  <si>
+    <t>{'bazen', 'evi', 'herkesin', 'görüyorum'}</t>
+  </si>
+  <si>
+    <t>{'dua', 'edin', 'ele', 'sizi'}</t>
+  </si>
+  <si>
+    <t>{'mü', 'gördün', 'benziyor', 'buna'}</t>
+  </si>
+  <si>
+    <t>{'köpek', 'sabah', 'ihtiyacı', 'hareket'}</t>
+  </si>
+  <si>
+    <t>{'öldürmek', 'adamı', 'diyorsun', 'zorundayım'}</t>
+  </si>
+  <si>
+    <t>{'tehlikeli', 'bayım'}</t>
+  </si>
+  <si>
+    <t>{'adına', 'gayet', 'canım', 'konuş'}</t>
+  </si>
+  <si>
+    <t>{'sabah', 'iyisi', 'gelin', 'gidin'}</t>
+  </si>
+  <si>
+    <t>{'ol', 'emin', 'sevgili', 'dostum'}</t>
+  </si>
+  <si>
+    <t>{'kadın', 'hem', 'ile', 'ajan'}</t>
+  </si>
+  <si>
+    <t>{'aşık', 'sende', 'öyleyse', 'ona'}</t>
   </si>
   <si>
     <t>{'vermek', 'mıydı', 'zarar', 'ona'}</t>
   </si>
   <si>
-    <t>{'kendime', 'yerinde', 'araba', 'falan'}</t>
-  </si>
-  <si>
-    <t>{'demektir', 'güvenlik', 'sıkı', 'altında'}</t>
-  </si>
-  <si>
-    <t>{'gelin', 'kızlar', 'geri', 'çekilin'}</t>
-  </si>
-  <si>
-    <t>{'kırmızı', 'gördüm', 'araba', 'ona'}</t>
-  </si>
-  <si>
-    <t>{'kaptan', 'yola', 'yalnız', 'tek'}</t>
-  </si>
-  <si>
-    <t>{'kayıp', 'annem', 'gördün', 'mü'}</t>
-  </si>
-  <si>
-    <t>{'zamanı', 'yeri', 'gayet', 'bilir'}</t>
-  </si>
-  <si>
-    <t>{'yapmaya', 'kendim', 'karar', 'şöyle'}</t>
-  </si>
-  <si>
-    <t>{'söyledim', 'bilgi', 'vermek', 'haklısın'}</t>
-  </si>
-  <si>
-    <t>{'pekala', 'bitti', 'insanların'}</t>
-  </si>
-  <si>
-    <t>{'duydun', 'kızlar', 'söyledi', 'nereden'}</t>
-  </si>
-  <si>
-    <t>{'zamanlar', 'babamın', 'annem', 'ile'}</t>
-  </si>
-  <si>
-    <t>{'erkek', 'biliyorsun', 'kadın', 'patron'}</t>
-  </si>
-  <si>
-    <t>{'kızlar', 'durun', 'azından', 'neyse'}</t>
-  </si>
-  <si>
-    <t>{'sizi', 'almaya', 'gelmiş', 'görmeye'}</t>
-  </si>
-  <si>
-    <t>{'buna', 'erken', 'özellikle', 'gerekir'}</t>
-  </si>
-  <si>
-    <t>{'çoktan', 'geç', 'geçti', 'falan'}</t>
-  </si>
-  <si>
-    <t>{'dava', 'beş', 'konuşma', 'yapmış'}</t>
-  </si>
-  <si>
-    <t>{'bakın', 'parçası', 'beş', 'dört'}</t>
-  </si>
-  <si>
-    <t>{'küçük', 'oldukça', 'şehir', 'sakin'}</t>
-  </si>
-  <si>
-    <t>{'veya', 'erkek', 'hepimiz', 'kadın'}</t>
-  </si>
-  <si>
-    <t>{'cevap', 'teşekkürler', 'saat', 'iki'}</t>
-  </si>
-  <si>
-    <t>{'kez', 'ikinci', 'sırada', 'aşk'}</t>
-  </si>
-  <si>
-    <t>{'canına', 'babam', 'annem', 'hem'}</t>
-  </si>
-  <si>
-    <t>{'su', 'geri', 'bebek', 'takım'}</t>
-  </si>
-  <si>
-    <t>{'kendim', 'sanıyordum', 'alıp', 'hep'}</t>
-  </si>
-  <si>
-    <t>{'inanamıyorum', 'nefret', 'dolu'}</t>
-  </si>
-  <si>
-    <t>{'dua', 'herşey', 'edeceğim', 'hep'}</t>
-  </si>
-  <si>
-    <t>{'söylemiştim', 'başladı', 'sıra', 'birkaç'}</t>
-  </si>
-  <si>
-    <t>{'geldik', 'bakın', 'sona', 'üç'}</t>
-  </si>
-  <si>
-    <t>{'anlaşıldı', 'mesela', 'iyisi', 'iki'}</t>
-  </si>
-  <si>
-    <t>{'dikkatli', 'olmalısın', 'karşı', 'ona'}</t>
-  </si>
-  <si>
-    <t>{'yıl', 'beş', 'bin', 'olmasını'}</t>
-  </si>
-  <si>
-    <t>{'silah', 'ateş', 'alıp', 'ona'}</t>
-  </si>
-  <si>
-    <t>{'silah', 'gelin', 'buldum', 'beyler'}</t>
-  </si>
-  <si>
-    <t>{'bazı', 'onlardan', 'gelen', 'insanları'}</t>
-  </si>
-  <si>
-    <t>{'olacaksın', 'suçlu', 'mü', 'hem'}</t>
-  </si>
-  <si>
-    <t>{'gördüm', 'cidden', 'gördün', 'mü'}</t>
-  </si>
-  <si>
-    <t>{'dek', 'annem', 'bizi', 'sonsuza'}</t>
-  </si>
-  <si>
-    <t>{'korkunç', 'biliyorsun', 'miyim'}</t>
-  </si>
-  <si>
-    <t>{'ölmüş', 'bile', 'canlı', 'olsa'}</t>
-  </si>
-  <si>
-    <t>{'canım', 'haydi', 'buradayım', 'çık'}</t>
+    <t>{'kendime', 'falan', 'yerinde', 'araba'}</t>
+  </si>
+  <si>
+    <t>{'güvenlik', 'altında', 'sıkı', 'demektir'}</t>
+  </si>
+  <si>
+    <t>{'kızlar', 'geri', 'çekilin', 'gelin'}</t>
+  </si>
+  <si>
+    <t>{'gördüm', 'araba', 'kırmızı', 'ona'}</t>
+  </si>
+  <si>
+    <t>{'yola', 'yalnız', 'kaptan', 'tek'}</t>
+  </si>
+  <si>
+    <t>{'annem', 'mü', 'gördün', 'kayıp'}</t>
+  </si>
+  <si>
+    <t>{'yeri', 'gayet', 'zamanı', 'bilir'}</t>
+  </si>
+  <si>
+    <t>{'karar', 'yapmaya', 'şöyle', 'kendim'}</t>
+  </si>
+  <si>
+    <t>{'vermek', 'bilgi', 'haklısın', 'söyledim'}</t>
+  </si>
+  <si>
+    <t>{'insanların', 'pekala', 'bitti'}</t>
+  </si>
+  <si>
+    <t>{'nereden', 'kızlar', 'duydun', 'söyledi'}</t>
+  </si>
+  <si>
+    <t>{'babamın', 'annem', 'ile', 'zamanlar'}</t>
+  </si>
+  <si>
+    <t>{'biliyorsun', 'erkek', 'kadın', 'patron'}</t>
+  </si>
+  <si>
+    <t>{'kızlar', 'azından', 'durun', 'neyse'}</t>
+  </si>
+  <si>
+    <t>{'görmeye', 'almaya', 'gelmiş', 'sizi'}</t>
+  </si>
+  <si>
+    <t>{'gerekir', 'erken', 'özellikle', 'buna'}</t>
+  </si>
+  <si>
+    <t>{'geçti', 'falan', 'geç', 'çoktan'}</t>
+  </si>
+  <si>
+    <t>{'dava', 'konuşma', 'beş', 'yapmış'}</t>
+  </si>
+  <si>
+    <t>{'parçası', 'dört', 'beş', 'bakın'}</t>
+  </si>
+  <si>
+    <t>{'şehir', 'sakin', 'küçük', 'oldukça'}</t>
+  </si>
+  <si>
+    <t>{'kadın', 'erkek', 'veya', 'hepimiz'}</t>
+  </si>
+  <si>
+    <t>{'saat', 'teşekkürler', 'cevap', 'iki'}</t>
+  </si>
+  <si>
+    <t>{'aşk', 'ikinci', 'sırada', 'kez'}</t>
+  </si>
+  <si>
+    <t>{'annem', 'babam', 'canına', 'hem'}</t>
+  </si>
+  <si>
+    <t>{'takım', 'bebek', 'geri', 'su'}</t>
+  </si>
+  <si>
+    <t>{'hep', 'alıp', 'sanıyordum', 'kendim'}</t>
+  </si>
+  <si>
+    <t>{'dolu', 'inanamıyorum', 'nefret'}</t>
+  </si>
+  <si>
+    <t>{'hep', 'herşey', 'dua', 'edeceğim'}</t>
+  </si>
+  <si>
+    <t>{'birkaç', 'sıra', 'başladı', 'söylemiştim'}</t>
+  </si>
+  <si>
+    <t>{'sona', 'bakın', 'üç', 'geldik'}</t>
+  </si>
+  <si>
+    <t>{'mesela', 'anlaşıldı', 'iyisi', 'iki'}</t>
+  </si>
+  <si>
+    <t>{'olmalısın', 'karşı', 'dikkatli', 'ona'}</t>
+  </si>
+  <si>
+    <t>{'olmasını', 'bin', 'beş', 'yıl'}</t>
+  </si>
+  <si>
+    <t>{'ateş', 'alıp', 'silah', 'ona'}</t>
+  </si>
+  <si>
+    <t>{'gelin', 'silah', 'beyler', 'buldum'}</t>
+  </si>
+  <si>
+    <t>{'bazı', 'gelen', 'onlardan', 'insanları'}</t>
+  </si>
+  <si>
+    <t>{'hem', 'mü', 'suçlu', 'olacaksın'}</t>
+  </si>
+  <si>
+    <t>{'gördüm', 'cidden', 'mü', 'gördün'}</t>
+  </si>
+  <si>
+    <t>{'annem', 'dek', 'sonsuza', 'bizi'}</t>
+  </si>
+  <si>
+    <t>{'biliyorsun', 'korkunç', 'miyim'}</t>
+  </si>
+  <si>
+    <t>{'bile', 'canlı', 'ölmüş', 'olsa'}</t>
+  </si>
+  <si>
+    <t>{'buradayım', 'çık', 'haydi', 'canım'}</t>
   </si>
   <si>
     <t>{'herşeyi', 'biliyorsun', 'yaparım'}</t>
   </si>
   <si>
-    <t>{'tanıyor', 'adamı', 'hayatta', 'kalan'}</t>
-  </si>
-  <si>
-    <t>{'saat', 'iki', 'karanlık', 'gece'}</t>
-  </si>
-  <si>
-    <t>{'gelecek', 'biliyorsun', 'yakında', 'sürü'}</t>
-  </si>
-  <si>
-    <t>{'konu', 'iki', 'üzerinde', 'böylece'}</t>
-  </si>
-  <si>
-    <t>{'uyuşturucu', 'pek', 'üzere'}</t>
-  </si>
-  <si>
-    <t>{'vereceğim', 'boş', 'mesela', 'yemeği'}</t>
-  </si>
-  <si>
-    <t>{'görüyorum', 'elinde', 'silah', 'sayın'}</t>
-  </si>
-  <si>
-    <t>{'sessiz', 'bahsediyorsun', 'ol'}</t>
-  </si>
-  <si>
-    <t>{'kızın', 'adamın', 'adı', 'adını'}</t>
-  </si>
-  <si>
-    <t>{'bakın', 'öldü', 'annem', 'hanımefendi'}</t>
-  </si>
-  <si>
-    <t>{'istedim', 'ondan', 'anne', 'öğrenmek'}</t>
-  </si>
-  <si>
-    <t>{'yalnızca', 'onları', 'yalnız', 'onlar'}</t>
-  </si>
-  <si>
-    <t>{'haklı', 'çıktı', 'hepiniz', 'tek'}</t>
-  </si>
-  <si>
-    <t>{'olası', 'gelecek', 'neyi', 'yakın'}</t>
-  </si>
-  <si>
-    <t>{'dedektif', 'ol', 'sakin'}</t>
-  </si>
-  <si>
-    <t>{'tamamdır', 'ikinci', 'halde', 'sefer'}</t>
-  </si>
-  <si>
-    <t>{'harika', 'burası', 'yol', 'muhteşem'}</t>
-  </si>
-  <si>
-    <t>{'onların', 'erkek', 'olma', 'siyah'}</t>
-  </si>
-  <si>
-    <t>{'benden', 'herif', 'pislik', 'uzak'}</t>
-  </si>
-  <si>
-    <t>{'cevap', 'ona', 'tuhaf', 'patron'}</t>
-  </si>
-  <si>
-    <t>{'çekil', 'yapmaya', 'sende', 'kadın'}</t>
-  </si>
-  <si>
-    <t>{'beyaz', 'şöyle', 'iki', 'bayan'}</t>
-  </si>
-  <si>
-    <t>{'ifade', 'tekrar', 'şuna', 'edeyim'}</t>
-  </si>
-  <si>
-    <t>{'gelin', 'haydi', 'bayanlar'}</t>
-  </si>
-  <si>
-    <t>{'görmedim', 'içki', 'kendime', 'bilmem'}</t>
+    <t>{'hayatta', 'adamı', 'kalan', 'tanıyor'}</t>
+  </si>
+  <si>
+    <t>{'karanlık', 'saat', 'gece', 'iki'}</t>
+  </si>
+  <si>
+    <t>{'yakında', 'biliyorsun', 'sürü', 'gelecek'}</t>
+  </si>
+  <si>
+    <t>{'böylece', 'iki', 'üzerinde', 'konu'}</t>
+  </si>
+  <si>
+    <t>{'pek', 'üzere', 'uyuşturucu'}</t>
+  </si>
+  <si>
+    <t>{'boş', 'mesela', 'yemeği', 'vereceğim'}</t>
+  </si>
+  <si>
+    <t>{'silah', 'elinde', 'görüyorum', 'sayın'}</t>
+  </si>
+  <si>
+    <t>{'ol', 'sessiz', 'bahsediyorsun'}</t>
+  </si>
+  <si>
+    <t>{'adı', 'adamın', 'adını', 'kızın'}</t>
+  </si>
+  <si>
+    <t>{'annem', 'bakın', 'hanımefendi', 'öldü'}</t>
+  </si>
+  <si>
+    <t>{'istedim', 'öğrenmek', 'ondan', 'anne'}</t>
+  </si>
+  <si>
+    <t>{'yalnızca', 'yalnız', 'onlar', 'onları'}</t>
+  </si>
+  <si>
+    <t>{'haklı', 'hepiniz', 'çıktı', 'tek'}</t>
+  </si>
+  <si>
+    <t>{'olası', 'gelecek', 'yakın', 'neyi'}</t>
+  </si>
+  <si>
+    <t>{'ol', 'sakin', 'dedektif'}</t>
+  </si>
+  <si>
+    <t>{'sefer', 'ikinci', 'halde', 'tamamdır'}</t>
+  </si>
+  <si>
+    <t>{'muhteşem', 'yol', 'burası', 'harika'}</t>
+  </si>
+  <si>
+    <t>{'erkek', 'onların', 'olma', 'siyah'}</t>
+  </si>
+  <si>
+    <t>{'benden', 'pislik', 'herif', 'uzak'}</t>
+  </si>
+  <si>
+    <t>{'patron', 'cevap', 'tuhaf', 'ona'}</t>
+  </si>
+  <si>
+    <t>{'kadın', 'yapmaya', 'çekil', 'sende'}</t>
+  </si>
+  <si>
+    <t>{'şöyle', 'iki', 'bayan', 'beyaz'}</t>
+  </si>
+  <si>
+    <t>{'tekrar', 'şuna', 'edeyim', 'ifade'}</t>
+  </si>
+  <si>
+    <t>{'haydi', 'bayanlar', 'gelin'}</t>
+  </si>
+  <si>
+    <t>{'kendime', 'bilmem', 'içki', 'görmedim'}</t>
   </si>
 </sst>
 </file>
